--- a/data/Simulations/HR1_2/Location1/Location1_2020.xlsx
+++ b/data/Simulations/HR1_2/Location1/Location1_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\HR1_2\Location1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC10C26-18D7-439E-B777-34AC2182EF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE05440-0FE2-4071-8D81-85F4BE31C142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -246,41 +246,11 @@
       <sheetName val="Flexibility, Summer"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="B2">
-            <v>30.67</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2">
-            <v>18.309999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="B2">
-            <v>44</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="B2">
-            <v>5.69</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
@@ -357,34 +327,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6">
-        <row r="2">
-          <cell r="B2">
-            <v>35.549999999999997</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="2">
-          <cell r="B2">
-            <v>6.52</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="2">
-          <cell r="B2">
-            <v>36.4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="2">
-          <cell r="B2">
-            <v>27.98</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10">
         <row r="2">
           <cell r="B2">
@@ -771,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F50D4F3-11C8-4AE0-8187-5D32BF24CF63}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13977,7 +13923,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y32"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17200,7 +17146,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection sqref="A1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21444,7 +21390,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24955,7 +24901,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A1:A25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30350,8 +30296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A493BBFE-7EA1-4C70-88FB-3F661833D41A}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
